--- a/coffeenear/release2/permission for pictures.xlsx
+++ b/coffeenear/release2/permission for pictures.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlin1\Documents\GitHub\WebTech\release1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlin1\Documents\GitHub\WebTech\coffeenear\release2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Item Description</t>
   </si>
@@ -483,7 +483,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,8 +635,14 @@
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44490</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -715,8 +721,9 @@
     <hyperlink ref="C7" r:id="rId4" display="mailto:editorial@edm.com"/>
     <hyperlink ref="C12" r:id="rId5"/>
     <hyperlink ref="C13" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId7"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>